--- a/test_data/REPORT_test_data/report_MOCK_DATA.xlsx_mock_data.xlsx
+++ b/test_data/REPORT_test_data/report_MOCK_DATA.xlsx_mock_data.xlsx
@@ -485,17 +485,17 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>('FO22 2384 9855 6956 12', '')</t>
+          <t>('PL82 0606 5923 2589 0099 5855 6419', 'next generation')</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>[2006.0, 33.33669, 34.05317, 23.49]</t>
+          <t>[2017.0, 30.4334, 22.8041, 18.4]</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>[2006.0, 33.33669, 34.05317, 23.49]</t>
+          <t>[2017.0, 30.4334, 22.8041, 18.4]</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -512,17 +512,17 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>('LT17 0327 5423 3376 4902', '')</t>
+          <t>('NO86 8247 5299 293', '')</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>[2013.0, 11.71432, 8.51316, 26.97]</t>
+          <t>[2015.0, 4.5325, 23.36493, 20.12]</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>[2013.0, 11.71432, 8.51316, 26.97]</t>
+          <t>[2015.0, 4.5325, 23.36493, 20.12]</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
@@ -539,17 +539,17 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>('MC25 6140 6612 40NT JOOH KYXP H72', 'local')</t>
+          <t>('LV95 ROBP YYK3 7KVF 97PQ V', '')</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>[2000.0, 9.85837, 6.05067, 31.17]</t>
+          <t>[2016.0, 21.66792, 22.75278, 25.6]</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>[2000.0, 9.85837, 6.05067, 31.17]</t>
+          <t>[2016.0, 21.66792, 22.75278, 25.6]</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
@@ -566,17 +566,17 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>('LI72 7685 1IGO GJCT HSAJ K', 'Graphical User Interface')</t>
+          <t>('TR07 5268 2YWM TXNS DDJB TDYH CG', '')</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>[2013.0, 18.02644, 7.84381, 1.09]</t>
+          <t>[2019.0, 7.53757, 8.57464, 21.1]</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>[2013.0, 18.02644, 7.84381, 1.09]</t>
+          <t>[2019.0, 7.53757, 8.57464, 21.1]</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
@@ -593,17 +593,17 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>('HR34 1036 8633 1429 9393 2', '', '')</t>
+          <t>('FO22 2384 9855 6956 12', '')</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>[2018.0, 32.0739, 15.4]</t>
+          <t>[2006.0, 33.33669, 34.05317, 23.49]</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>[2018.0, 32.0739, 15.4]</t>
+          <t>[2006.0, 33.33669, 34.05317, 23.49]</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
@@ -620,17 +620,17 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>('RO10 PHVB YLH0 30YU EB1K NQEE', '')</t>
+          <t>('AZ93 DCIN 1WE0 3N4S VCJR OPBN V9RT', '', 'optimizing')</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>[2014.0, 1.7785, 4.9239, 33.51]</t>
+          <t>[2011.0, 17.05823, 18.66]</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>[2014.0, 1.7785, 4.9239, 33.51]</t>
+          <t>[2011.0, 17.05823, 18.66]</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
@@ -647,17 +647,17 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>('FR17 4386 6057 70VE CKFI L4ST U61', '')</t>
+          <t>('LV14 EUQC Z3OS DRE2 BV3X E', '')</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>[2016.0, 10.72207, 26.59578, 27.96]</t>
+          <t>[2017.0, 9.13007, 5.43523, 17.06]</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>[2016.0, 10.72207, 26.59578, 27.96]</t>
+          <t>[2017.0, 9.13007, 5.43523, 17.06]</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -674,17 +674,17 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>('MU73 TSFB 6869 9727 7482 6943 284V LT', '')</t>
+          <t>('MD10 QSDS C0PP T8YB NWEB MUCW', '')</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>[2012.0, 16.71725, 18.01337, 9.79]</t>
+          <t>[2006.0, 20.3756, 22.8325, 4.83]</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>[2012.0, 16.71725, 18.01337, 9.79]</t>
+          <t>[2006.0, 20.3756, 22.8325, 4.83]</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
@@ -701,17 +701,17 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>('IS40 9180 4001 1378 4881 1907 39', '')</t>
+          <t>('ME21 6004 3035 6245 8080 85', '')</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>[2009.0, 31.19619, 33.19297, 34.65]</t>
+          <t>[2009.0, 29.86816, 16.76982, 18.74]</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>[2009.0, 31.19619, 33.19297, 34.65]</t>
+          <t>[2009.0, 29.86816, 16.76982, 18.74]</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
@@ -728,17 +728,17 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>('FR34 8487 2432 90RA D8D0 QFVP 865', 'local area network')</t>
+          <t>('SM88 C084 1092 877W KBGO GYDP RB9', 'Persevering')</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>[2018.0, 21.6696, 25.44197, 19.79]</t>
+          <t>[2013.0, 2.7267, 16.53669, 4.44]</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>[2018.0, 21.6696, 25.44197, 19.79]</t>
+          <t>[2013.0, 2.7267, 16.53669, 4.44]</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
@@ -755,17 +755,17 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>('CY19 2831 7159 XHH9 SPNB U3ZX H0G1', '')</t>
+          <t>('AD37 7205 5893 V9N5 ODHY NA15', 'Graphical User Interface')</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>[2016.0, 20.68625, 13.45405, 18.54]</t>
+          <t>[2007.0, 21.65938, 20.92826, 6.98]</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>[2016.0, 20.68625, 13.45405, 18.54]</t>
+          <t>[2007.0, 21.65938, 20.92826, 6.98]</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
@@ -782,17 +782,17 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>('PS73 PCWV 2NHC WKIA 8UXL URY4 AU7Y 3', '')</t>
+          <t>('AZ18 BRND WYIG EA0Y 06HS ZKNA TOEB', 'service-desk')</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>[2012.0, 32.86778, 32.34208, 15.86]</t>
+          <t>[2004.0, 9.57692, 11.97564, 16.48]</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>[2012.0, 32.86778, 32.34208, 15.86]</t>
+          <t>[2004.0, 9.57692, 11.97564, 16.48]</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
@@ -809,17 +809,17 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>('LV97 HJQI XSFX MBNZ TMMA N', 'moratorium')</t>
+          <t>('MD66 NLWM 5VKM NHFK HNWO WCMH', '')</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>[2018.0, 8.78126, 3.72063, 2.56]</t>
+          <t>[2018.0, 4.2544, 31.78594, 2.45]</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>[2018.0, 8.78126, 3.72063, 2.56]</t>
+          <t>[2018.0, 4.2544, 31.78594, 2.45]</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
@@ -836,17 +836,17 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>('FR14 9721 1762 58D9 L9BL TAW2 Z76', 'encoding')</t>
+          <t>('AD49 5880 6175 MWHH EZC2 EPFK', '')</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>[2007.0, 31.63965, 10.49419, 20.16]</t>
+          <t>[2016.0, 11.6998, 5.04259, 5.02]</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>[2007.0, 31.63965, 10.49419, 20.16]</t>
+          <t>[2016.0, 11.6998, 5.04259, 5.02]</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
@@ -863,17 +863,17 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>('ME97 4838 3055 2140 4652 40', '')</t>
+          <t>('CR10 1301 0843 5149 3134 7', '')</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>[2009.0, 15.54734, 5.07709, 34.93]</t>
+          <t>[1996.0, 12.88227, 2.28652, 15.53]</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>[2009.0, 15.54734, 5.07709, 34.93]</t>
+          <t>[1996.0, 12.88227, 2.28652, 15.53]</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
@@ -890,44 +890,44 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>('FR75 1304 6692 36HH YNNW EDRP U16', '')</t>
+          <t>('CZ90 6388 1158 9085 1122 3730', 'knowledge user')</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>[2017.0, 11.65434, 15.00641, 27.21]</t>
+          <t>[2011.0, 12.29505, 33.03468, 6.11]</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>[2017.0, 11.65434, 15.00641, 27.21]</t>
-        </is>
-      </c>
-      <c r="D17" s="3" t="inlineStr">
-        <is>
-          <t>PASS</t>
+          <t>[2011.0, 12.29505, 33.03468, 6.11421]</t>
+        </is>
+      </c>
+      <c r="D17" s="4" t="inlineStr">
+        <is>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[0.00421]</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>('AZ93 DCIN 1WE0 3N4S VCJR OPBN V9RT', '', 'optimizing')</t>
+          <t>('LT17 0327 5423 3376 4902', '')</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>[2011.0, 17.05823, 18.66]</t>
+          <t>[2013.0, 11.71432, 8.51316, 26.97]</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>[2011.0, 17.05823, 18.66]</t>
+          <t>[2013.0, 11.71432, 8.51316, 26.97]</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
@@ -944,17 +944,17 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>('BE79 3912 1524 3321', '')</t>
+          <t>('MK21 288Y D1FL ESNP Q29', '', 'radical')</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>[0.0, 3.19658, 28.23225, 29.39]</t>
+          <t>[2008.0, 23.93246, 33.43]</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>[0.0, 3.19658, 28.23225, 29.39]</t>
+          <t>[2008.0, 23.93246, 33.43]</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
@@ -971,44 +971,44 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>('AT93 5616 4483 1930 1613', '')</t>
+          <t>('PL70 3380 5531 5257 6545 0735 9929', 'Multi-layered')</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>[2017.0, 25.15557, 17.36863, 10.99]</t>
+          <t>[2019.0, 1.75088, 15.06291, 8.44]</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>[2017.0, 25.15557, 17.36863, 10.99]</t>
-        </is>
-      </c>
-      <c r="D20" s="3" t="inlineStr">
-        <is>
-          <t>PASS</t>
+          <t>[2019.0, 1.75088, 15.06291, 78.44]</t>
+        </is>
+      </c>
+      <c r="D20" s="4" t="inlineStr">
+        <is>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[70.0]</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>('FR85 0875 9198 14NK HWJH HMHV 101', '')</t>
+          <t>('HR34 1036 8633 1429 9393 2', '', '')</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>[2015.0, 3.16178, 15.56012, 20.09]</t>
+          <t>[2018.0, 32.0739, 15.4]</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>[2015.0, 3.16178, 15.56012, 20.09]</t>
+          <t>[2018.0, 32.0739, 15.4]</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
@@ -1025,17 +1025,17 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>('PT48 9547 7145 0711 6406 9763 0', 'Quality-focused')</t>
+          <t>('KZ45 2476 JXRW ABRQ 1XTC', '')</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>[2020.0, 25.34973, 30.41719, 9.06]</t>
+          <t>[2014.0, 12.37228, 8.68935, 11.67]</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>[2020.0, 25.34973, 30.41719, 9.06]</t>
+          <t>[2014.0, 12.37228, 8.68935, 11.67]</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
@@ -1052,17 +1052,17 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>('BG95 VNYO 7604 271R NNAK MA', '')</t>
+          <t>('AT32 9889 2449 9236 2133', '')</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>[2016.0, 13.51647, 13.46117, 3.87]</t>
+          <t>[2014.0, 4.21371, 13.74512, 13.78]</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>[2016.0, 13.51647, 13.46117, 3.87]</t>
+          <t>[2014.0, 4.21371, 13.74512, 13.78]</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
@@ -1079,17 +1079,17 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>('BE85 6513 7708 8282', '')</t>
+          <t>('DO91 L62F 0944 6935 1417 5974 5533', 'solution-oriented')</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>[2018.0, 20.28775, 34.65946, 13.52]</t>
+          <t>[2011.0, 33.92766, 31.92266, 26.77]</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>[2018.0, 20.28775, 34.65946, 13.52]</t>
+          <t>[2011.0, 33.92766, 31.92266, 26.77]</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
@@ -1106,17 +1106,17 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>('MD50 ZOFQ MPTQ MV5P KHHR 8TBN', 'User-friendly')</t>
+          <t>('AZ37 ZWXD 4WYS TYQI DDPB LZHH EMQS', '')</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>[2014.0, 4.43078, 20.29182, 30.96]</t>
+          <t>[2021.0, 18.99396, 3.25298, 34.29]</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>[2014.0, 4.43078, 20.29182, 30.96]</t>
+          <t>[2021.0, 18.99396, 3.25298, 34.29]</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
@@ -1133,17 +1133,17 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>('AT12 1939 6455 5066 7889', '')</t>
+          <t>('FR71 1160 5711 20WC TLWU YZZY 355', 'fresh-thinking')</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>[2014.0, 2.57696, 27.78488, 13.99]</t>
+          <t>[2009.0, 32.33383, 19.61646, 16.47]</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>[2014.0, 2.57696, 27.78488, 13.99]</t>
+          <t>[2009.0, 32.33383, 19.61646, 16.47]</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
@@ -1160,44 +1160,44 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>('CZ90 6388 1158 9085 1122 3730', 'knowledge user')</t>
+          <t>('SM93 B374 1481 278R NGOP UUZN R9P', 'Compatible')</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>[2011.0, 12.29505, 33.03468, 6.11]</t>
+          <t>[2011.0, 15.29257, 24.09298, 11.7]</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>[2011.0, 12.29505, 33.03468, 6.11421]</t>
-        </is>
-      </c>
-      <c r="D27" s="4" t="inlineStr">
-        <is>
-          <t>FAIL</t>
+          <t>[2011.0, 15.29257, 24.09298, 11.7]</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>PASS</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>[0.00421]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>('MD23 PZGO HHRM ARCT VVLJ JRGC', 'project')</t>
+          <t>('IS40 9180 4001 1378 4881 1907 39', '')</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>[0.0, 24.61024, 21.53354, 25.02]</t>
+          <t>[2009.0, 31.19619, 33.19297, 34.65]</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>[0.0, 24.61024, 21.53354, 25.02]</t>
+          <t>[2009.0, 31.19619, 33.19297, 34.65]</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
@@ -1214,17 +1214,17 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>('AD49 5880 6175 MWHH EZC2 EPFK', '')</t>
+          <t>('GB84 DMNZ 2243 3445 8251 77', 'Sharable')</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>[2016.0, 11.6998, 5.04259, 5.02]</t>
+          <t>[2004.0, 18.33324, 9.56963, 23.59]</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>[2016.0, 11.6998, 5.04259, 5.02]</t>
+          <t>[2004.0, 18.33324, 9.56963, 23.59]</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
@@ -1241,17 +1241,17 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>('AL72 8333 0306 154N G73I 7JSM 6BI1', 'Integrated')</t>
+          <t>('LI45 5774 5DFL SQJK BW4N X', 'projection')</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>[2005.0, 16.76123, 23.15892, 21.91]</t>
+          <t>[1999.0, 13.4668, 29.31703, 6.29]</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>[2005.0, 16.76123, 23.15892, 21.91]</t>
+          <t>[1999.0, 13.4668, 29.31703, 6.29]</t>
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr">
@@ -1268,17 +1268,17 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>('CH31 5106 86EY EGNR WZ9U L', '')</t>
+          <t>('NL51 SVWQ 7292 0904 45', '')</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>[2019.0, 17.51596, 16.62937, 17.69]</t>
+          <t>[2015.0, 18.14148, 4.36244, 2.33]</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>[2019.0, 17.51596, 16.62937, 17.69]</t>
+          <t>[2015.0, 18.14148, 4.36244, 2.33]</t>
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr">
@@ -1295,17 +1295,17 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>('CZ91 9143 2822 8759 8003 0329', '')</t>
+          <t>('MR71 3046 8079 7692 1026 2038 944', '')</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>[2020.0, 30.56008, 14.6595, 9.0]</t>
+          <t>[2010.0, 11.52491, 3.78871, 21.97]</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>[2020.0, 30.56008, 14.6595, 9.0]</t>
+          <t>[2010.0, 11.52491, 3.78871, 21.97]</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
@@ -1322,17 +1322,17 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>('MD66 NLWM 5VKM NHFK HNWO WCMH', '')</t>
+          <t>('AL64 6952 6272 RTRO TG3H ZK4T 57UU', 'needs-based')</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>[2018.0, 4.2544, 31.78594, 2.45]</t>
+          <t>[2017.0, 12.10915, 14.94297, 3.93]</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>[2018.0, 4.2544, 31.78594, 2.45]</t>
+          <t>[2017.0, 12.10915, 14.94297, 3.93]</t>
         </is>
       </c>
       <c r="D33" s="3" t="inlineStr">
@@ -1349,17 +1349,17 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>('LB70 9084 U7AE PV68 JRC9 SLPY OAZA', 'Right-sized')</t>
+          <t>('BE79 3912 1524 3321', '')</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>[2015.0, 31.51073, 28.31371, 3.38]</t>
+          <t>[0.0, 3.19658, 28.23225, 29.39]</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>[2015.0, 31.51073, 28.31371, 3.38]</t>
+          <t>[0.0, 3.19658, 28.23225, 29.39]</t>
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr">
@@ -1376,17 +1376,17 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>('SI70 8014 5983 9508 969', '')</t>
+          <t>('FI78 1545 2490 0436 58', '', '')</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>[2011.0, 20.02967, 16.85391, 21.54]</t>
+          <t>[2008.0, 19.87694, 19.17]</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>[2011.0, 20.02967, 16.85391, 21.54]</t>
+          <t>[2008.0, 19.87694, 19.17]</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
@@ -1403,17 +1403,17 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>('SI47 6748 4442 3463 823', '')</t>
+          <t>('GR89 8461 8453 XZOY ULUP ZUHB 45H', '')</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>[1998.0, 18.09311, 5.76609, 2.06]</t>
+          <t>[2016.0, 27.31544, 6.59009, 18.33]</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>[1998.0, 18.09311, 5.76609, 2.06]</t>
+          <t>[2016.0, 27.31544, 6.59009, 18.33]</t>
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr">
@@ -1430,44 +1430,44 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>('HU52 9898 4213 5176 1777 7165 5419', 'encompassing')</t>
+          <t>('FR44 5550 2233 12ZL XZL2 6UMG N98', 'Face to face')</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>[2012.0, 1.7833, 23.57441, 23.3]</t>
+          <t>[2007.0, 14.8618, 19.56054, 2.98]</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>[2012.0, 0.7833, 23.57441, 23.3]</t>
-        </is>
-      </c>
-      <c r="D37" s="4" t="inlineStr">
-        <is>
-          <t>FAIL</t>
+          <t>[2007.0, 14.8618, 19.56054, 2.98]</t>
+        </is>
+      </c>
+      <c r="D37" s="3" t="inlineStr">
+        <is>
+          <t>PASS</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>[-1.0]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>('PS22 XCSM A4JV ZWHN GKJH NN0I SJAV N', 'Synergistic')</t>
+          <t>('ME97 4838 3055 2140 4652 40', '')</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>[2004.0, 6.60445, 32.82567, 14.59]</t>
+          <t>[2009.0, 15.54734, 5.07709, 34.93]</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>[2004.0, 6.60445, 32.82567, 14.59]</t>
+          <t>[2009.0, 15.54734, 5.07709, 34.93]</t>
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr">
@@ -1484,17 +1484,17 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>('PK46 ZUUK KNR1 DKPJ 31JF A2AU', '')</t>
+          <t>('FR45 0872 9704 65YG MLW0 Y1RJ I95', '')</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>[2014.0, 26.11139, 19.87706, 19.74]</t>
+          <t>[2014.0, 25.56047, 2.36789, 32.25]</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>[2014.0, 26.11139, 19.87706, 19.74]</t>
+          <t>[2014.0, 25.56047, 2.36789, 32.25]</t>
         </is>
       </c>
       <c r="D39" s="3" t="inlineStr">
@@ -1511,17 +1511,17 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>('LU85 097J NGB4 CYVN 067E', '')</t>
+          <t>('RO10 PHVB YLH0 30YU EB1K NQEE', '')</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>[2012.0, 18.80157, 17.98329, 9.32]</t>
+          <t>[2014.0, 1.7785, 4.9239, 33.51]</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>[2012.0, 18.80157, 17.98329, 9.32]</t>
+          <t>[2014.0, 1.7785, 4.9239, 33.51]</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr">
@@ -1538,17 +1538,17 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>('ES22 9700 7734 8770 4091 5098', '')</t>
+          <t>('PT16 5670 0074 0937 5625 5297 5', 'help-desk')</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>[2009.0, 6.07865, 24.7863, 5.22]</t>
+          <t>[2018.0, 29.02928, 19.03125, 29.01]</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>[2009.0, 6.07865, 24.7863, 5.22]</t>
+          <t>[2018.0, 29.02928, 19.03125, 29.01]</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
@@ -1565,17 +1565,17 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>('AL97 9974 2251 MJPR C5VC VVBS VZMC', '')</t>
+          <t>('SM53 L335 2136 439R IEUF WEC5 ZRD', 'data-warehouse')</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>[2012.0, 34.75131, 5.40346, 12.32]</t>
+          <t>[2014.0, 26.48204, 18.89291, 21.14]</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>[2012.0, 34.75131, 5.40346, 12.32]</t>
+          <t>[2014.0, 26.48204, 18.89291, 21.14]</t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr">
@@ -1592,17 +1592,17 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>('AD89 4822 4731 3CVH WNRZ ONKG', '')</t>
+          <t>('LB70 9084 U7AE PV68 JRC9 SLPY OAZA', 'Right-sized')</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>[2020.0, 13.15791, 27.04429, 30.74]</t>
+          <t>[2015.0, 31.51073, 28.31371, 3.38]</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>[2020.0, 13.15791, 27.04429, 30.74]</t>
+          <t>[2015.0, 31.51073, 28.31371, 3.38]</t>
         </is>
       </c>
       <c r="D43" s="3" t="inlineStr">
@@ -1619,17 +1619,17 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>('HU31 3766 8395 6898 7567 1070 2083', '')</t>
+          <t>('BE13 3895 5129 7876', 'Switchable')</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>[2001.0, 18.06291, 32.67256, 1.26]</t>
+          <t>[2004.0, 6.39977, 30.0622, 10.57]</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>[2001.0, 18.06291, 32.67256, 1.26]</t>
+          <t>[2004.0, 6.39977, 30.0622, 10.57]</t>
         </is>
       </c>
       <c r="D44" s="3" t="inlineStr">
@@ -1646,17 +1646,17 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>('LU02 283I ZHUB SALT NHTF', '')</t>
+          <t>('SA98 85XA 647W JRQ2 V4CK URMJ', 'implementation')</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>[2012.0, 6.07496, 16.91051, 8.29]</t>
+          <t>[2015.0, 4.65345, 13.77682, 13.27]</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>[2012.0, 6.07496, 16.91051, 8.29]</t>
+          <t>[2015.0, 4.65345, 13.77682, 13.27]</t>
         </is>
       </c>
       <c r="D45" s="3" t="inlineStr">
@@ -1673,17 +1673,17 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>('AZ08 LFBO EUZA W4OP 9B1Y DT3H NSIN', 'Object-based')</t>
+          <t>('PS08 LFNK Z2L2 IZBZ TATP PMIE 0ORO T', '')</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>[2010.0, 21.78551, 3.16202, 6.33]</t>
+          <t>[2013.0, 31.74558, 21.62143, 10.93]</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>[2010.0, 21.78551, 3.16202, 6.33]</t>
+          <t>[2013.0, 31.74558, 21.62143, 10.93]</t>
         </is>
       </c>
       <c r="D46" s="3" t="inlineStr">
@@ -1700,17 +1700,17 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>('VG31 ZQOE 1664 3145 5498 7770', 'Decentralized')</t>
+          <t>('HR23 9970 5212 1133 4458 3', 'array')</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>[2017.0, 26.99993, 19.80792, 33.3]</t>
+          <t>[2009.0, 8.59499, 31.11391, 18.98]</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>[2017.0, 26.99993, 19.80792, 33.3]</t>
+          <t>[2009.0, 8.59499, 31.11391, 18.98]</t>
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr">
@@ -1727,17 +1727,17 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>('SE73 9240 7477 7911 9057 9462', '')</t>
+          <t>('LB25 8193 ZZVU ZNFI UKTG CIWA JSQV', '')</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>[2008.0, 12.53634, 28.19933, 34.03]</t>
+          <t>[2011.0, 33.64968, 25.22065, 9.9]</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>[2008.0, 12.53634, 28.19933, 34.03]</t>
+          <t>[2011.0, 33.64968, 25.22065, 9.9]</t>
         </is>
       </c>
       <c r="D48" s="3" t="inlineStr">
@@ -1754,17 +1754,17 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>('AD37 7205 5893 V9N5 ODHY NA15', 'Graphical User Interface')</t>
+          <t>('FR59 2632 5348 89TN HTWN GYRY C99', '')</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>[2007.0, 21.65938, 20.92826, 6.98]</t>
+          <t>[2011.0, 30.4217, 11.26172, 14.88]</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>[2007.0, 21.65938, 20.92826, 6.98]</t>
+          <t>[2011.0, 30.4217, 11.26172, 14.88]</t>
         </is>
       </c>
       <c r="D49" s="3" t="inlineStr">
@@ -1781,17 +1781,17 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>('PT16 5670 0074 0937 5625 5297 5', 'help-desk')</t>
+          <t>('TR21 9920 7ENO DPGN 3QKY 7XWB XG', '')</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>[2018.0, 29.02928, 19.03125, 29.01]</t>
+          <t>[2009.0, 14.85743, 24.29145, 17.76]</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>[2018.0, 29.02928, 19.03125, 29.01]</t>
+          <t>[2009.0, 14.85743, 24.29145, 17.76]</t>
         </is>
       </c>
       <c r="D50" s="3" t="inlineStr">
@@ -1808,17 +1808,17 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>('AD39 7446 9930 MWO3 CIXZ JXUM', 'middleware')</t>
+          <t>('IS51 2444 7567 4951 4366 0772 89', '')</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>[2011.0, 33.74886, 17.95307, 2.94]</t>
+          <t>[2005.0, 19.12235, 34.37349, 13.68]</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>[2011.0, 33.74886, 17.95307, 2.94]</t>
+          <t>[2005.0, 19.12235, 34.37349, 13.68]</t>
         </is>
       </c>
       <c r="D51" s="3" t="inlineStr">
@@ -1835,17 +1835,17 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>('LV46 XXIX NMFQ 0BWN U3ZD M', '')</t>
+          <t>('SI47 6748 4442 3463 823', '')</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>[2009.0, 14.8385, 9.91532, 20.1]</t>
+          <t>[1998.0, 18.09311, 5.76609, 2.06]</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>[2009.0, 14.8385, 9.91532, 20.1]</t>
+          <t>[1998.0, 18.09311, 5.76609, 2.06]</t>
         </is>
       </c>
       <c r="D52" s="3" t="inlineStr">
@@ -1862,17 +1862,17 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>('FR16 0580 2045 20MG KTEV ZQNO 396', '')</t>
+          <t>('SI68 1820 7430 9240 077', '')</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>[2010.0, 19.01096, 18.36853, 32.16]</t>
+          <t>[2018.0, 7.37854, 19.69095, 20.21]</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>[2010.0, 19.01096, 18.36853, 32.16]</t>
+          <t>[2018.0, 7.37854, 19.69095, 20.21]</t>
         </is>
       </c>
       <c r="D53" s="3" t="inlineStr">
@@ -1889,17 +1889,17 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>('MC48 7184 8197 768V CY1K IMGJ R14', '', '')</t>
+          <t>('PS25 EPKD CHVW OANF DW5Q RN0W WTCX K', '')</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>[2016.0, 21.33205, 16.03]</t>
+          <t>[2019.0, 8.35226, 3.71473, 11.16]</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>[2016.0, 21.33205, 16.03]</t>
+          <t>[2019.0, 8.35226, 3.71473, 11.16]</t>
         </is>
       </c>
       <c r="D54" s="3" t="inlineStr">
@@ -1916,17 +1916,17 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>('NO86 8247 5299 293', '')</t>
+          <t>('GE04 VU99 6596 7310 5692 42', '')</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>[2015.0, 4.5325, 23.36493, 20.12]</t>
+          <t>[2018.0, 9.60983, 16.88953, 1.17]</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>[2015.0, 4.5325, 23.36493, 20.12]</t>
+          <t>[2018.0, 9.60983, 16.88953, 1.17]</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
@@ -1943,17 +1943,17 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>('AT21 0815 5067 4654 1583', '')</t>
+          <t>('AT26 5820 2675 0356 3271', 'zero defect')</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>[2012.0, 25.21563, 5.92503, 11.05]</t>
+          <t>[2008.0, 28.49054, 14.7059, 27.72]</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>[2012.0, 25.21563, 5.92503, 11.05]</t>
+          <t>[2008.0, 28.49054, 14.7059, 27.72]</t>
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr">
@@ -1970,17 +1970,17 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>('LI45 5774 5DFL SQJK BW4N X', 'projection')</t>
+          <t>('BG90 CKND 3854 18HU XD5M 8J', '')</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>[1999.0, 13.4668, 29.31703, 6.29]</t>
+          <t>[2001.0, 4.03151, 2.32338, 12.23]</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>[1999.0, 13.4668, 29.31703, 6.29]</t>
+          <t>[2001.0, 4.03151, 2.32338, 12.23]</t>
         </is>
       </c>
       <c r="D57" s="3" t="inlineStr">
@@ -1997,17 +1997,17 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>('BA56 6184 0204 5174 8421', '')</t>
+          <t>('BG95 VNYO 7604 271R NNAK MA', '')</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>[2015.0, 14.56754, 34.13968, 21.32]</t>
+          <t>[2016.0, 13.51647, 13.46117, 3.87]</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>[2015.0, 14.56754, 34.13968, 21.32]</t>
+          <t>[2016.0, 13.51647, 13.46117, 3.87]</t>
         </is>
       </c>
       <c r="D58" s="3" t="inlineStr">
@@ -2024,17 +2024,17 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>('PS08 LFNK Z2L2 IZBZ TATP PMIE 0ORO T', '')</t>
+          <t>('HR32 2437 0990 3468 3251 7', '', '')</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>[2013.0, 31.74558, 21.62143, 10.93]</t>
+          <t>[2016.0, 7.17604, 21.05]</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>[2013.0, 31.74558, 21.62143, 10.93]</t>
+          <t>[2016.0, 7.17604, 21.05]</t>
         </is>
       </c>
       <c r="D59" s="3" t="inlineStr">
@@ -2051,17 +2051,17 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>('SA98 85XA 647W JRQ2 V4CK URMJ', 'implementation')</t>
+          <t>('MU73 TSFB 6869 9727 7482 6943 284V LT', '')</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>[2015.0, 4.65345, 13.77682, 13.27]</t>
+          <t>[2012.0, 16.71725, 18.01337, 9.79]</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>[2015.0, 4.65345, 13.77682, 13.27]</t>
+          <t>[2012.0, 16.71725, 18.01337, 9.79]</t>
         </is>
       </c>
       <c r="D60" s="3" t="inlineStr">
@@ -2078,17 +2078,17 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>('PS08 QCPE USPO K7TA E3FQ GQOQ KRF3 T', '')</t>
+          <t>('MC48 7184 8197 768V CY1K IMGJ R14', '', '')</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>[2018.0, 15.52732, 14.93181, 21.89]</t>
+          <t>[2016.0, 21.33205, 16.03]</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>[2018.0, 15.52732, 14.93181, 21.89]</t>
+          <t>[2016.0, 21.33205, 16.03]</t>
         </is>
       </c>
       <c r="D61" s="3" t="inlineStr">
@@ -2105,17 +2105,17 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>('FR06 2928 8076 28DQ 2LU7 4FID F04', 'didactic')</t>
+          <t>('GR16 3065 793B Z5RU G17Q Q3QN RXW', '')</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>[2002.0, 24.67853, 25.10648, 23.27]</t>
+          <t>[2009.0, 3.85894, 2.76212, 26.07]</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>[2002.0, 24.67853, 25.10648, 23.27]</t>
+          <t>[2009.0, 3.85894, 2.76212, 26.07]</t>
         </is>
       </c>
       <c r="D62" s="3" t="inlineStr">
@@ -2132,17 +2132,17 @@
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>('CR36 5946 7540 0249 7042 5', 'Customer-focused')</t>
+          <t>('GL19 8754 3034 5493 70', 'Cloned')</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>[2010.0, 24.41216, 9.40856, 2.4]</t>
+          <t>[2012.0, 27.3021, 19.08725, 19.51]</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>[2010.0, 24.41216, 9.40856, 2.4]</t>
+          <t>[2012.0, 27.3021, 19.08725, 19.51]</t>
         </is>
       </c>
       <c r="D63" s="3" t="inlineStr">
@@ -2159,17 +2159,17 @@
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>('IL37 0716 3099 8553 0951 409', '')</t>
+          <t>('MR63 4626 5538 5305 3799 0332 886', 'mission-critical')</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>[2010.0, 24.14219, 13.83815, 17.75]</t>
+          <t>[2015.0, 11.05505, 23.72029, 5.36]</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>[2010.0, 24.14219, 13.83815, 17.75]</t>
+          <t>[2015.0, 11.05505, 23.72029, 5.36]</t>
         </is>
       </c>
       <c r="D64" s="3" t="inlineStr">
@@ -2186,17 +2186,17 @@
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>('LV91 WMUV JOFO 2XLR UYEI T', 'Innovative')</t>
+          <t>('LV97 HJQI XSFX MBNZ TMMA N', 'moratorium')</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>[2008.0, 28.97925, 6.71373, 29.25]</t>
+          <t>[2018.0, 8.78126, 3.72063, 2.56]</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>[2008.0, 28.97925, 6.71373, 29.25]</t>
+          <t>[2018.0, 8.78126, 3.72063, 2.56]</t>
         </is>
       </c>
       <c r="D65" s="3" t="inlineStr">
@@ -2213,17 +2213,17 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>('GB84 DMNZ 2243 3445 8251 77', 'Sharable')</t>
+          <t>('DK13 2114 5766 0520 95', '')</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>[2004.0, 18.33324, 9.56963, 23.59]</t>
+          <t>[2019.0, 20.32835, 22.20597, 22.99]</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>[2004.0, 18.33324, 9.56963, 23.59]</t>
+          <t>[2019.0, 20.32835, 22.20597, 22.99]</t>
         </is>
       </c>
       <c r="D66" s="3" t="inlineStr">
@@ -2240,17 +2240,17 @@
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>('EE60 0860 2937 4213 4766', 'Enhanced')</t>
+          <t>('AD89 4822 4731 3CVH WNRZ ONKG', '')</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>[2013.0, 33.92035, 17.96162, 13.88]</t>
+          <t>[2020.0, 13.15791, 27.04429, 30.74]</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>[2013.0, 33.92035, 17.96162, 13.88]</t>
+          <t>[2020.0, 13.15791, 27.04429, 30.74]</t>
         </is>
       </c>
       <c r="D67" s="3" t="inlineStr">
@@ -2267,17 +2267,17 @@
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>('FR26 6978 0875 43UP MGMY PJRT 242', 'content-based')</t>
+          <t>('SI74 2819 6967 0008 990', 'Open-architected')</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>[2018.0, 29.333, 33.58855, 32.64]</t>
+          <t>[2013.0, 31.38258, 19.83445, 3.91]</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>[2018.0, 29.333, 33.58855, 32.64]</t>
+          <t>[2013.0, 31.38258, 19.83445, 3.91]</t>
         </is>
       </c>
       <c r="D68" s="3" t="inlineStr">
@@ -2294,17 +2294,17 @@
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>('AD11 8389 0233 NS7R WURI 9OPT', 'Progressive')</t>
+          <t>('VG31 ZQOE 1664 3145 5498 7770', 'Decentralized')</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>[2004.0, 8.04103, 4.39201, 2.61]</t>
+          <t>[2017.0, 26.99993, 19.80792, 33.3]</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>[2004.0, 8.04103, 4.39201, 2.61]</t>
+          <t>[2017.0, 26.99993, 19.80792, 33.3]</t>
         </is>
       </c>
       <c r="D69" s="3" t="inlineStr">
@@ -2321,17 +2321,17 @@
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>('SM53 L335 2136 439R IEUF WEC5 ZRD', 'data-warehouse')</t>
+          <t>('HU31 3766 8395 6898 7567 1070 2083', '')</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>[2014.0, 26.48204, 18.89291, 21.14]</t>
+          <t>[2001.0, 18.06291, 32.67256, 1.26]</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>[2014.0, 26.48204, 18.89291, 21.14]</t>
+          <t>[2001.0, 18.06291, 32.67256, 1.26]</t>
         </is>
       </c>
       <c r="D70" s="3" t="inlineStr">
@@ -2348,17 +2348,17 @@
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>('FR54 4415 3882 12MY GWIB WULK D13', '')</t>
+          <t>('LU02 283I ZHUB SALT NHTF', '')</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>[2013.0, 23.52919, 14.31729, 26.44]</t>
+          <t>[2012.0, 6.07496, 16.91051, 8.29]</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>[2013.0, 23.52919, 14.31729, 26.44]</t>
+          <t>[2012.0, 6.07496, 16.91051, 8.29]</t>
         </is>
       </c>
       <c r="D71" s="3" t="inlineStr">
@@ -2375,17 +2375,17 @@
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>('BH52 GMXD DQGK BQV8 QYZO QW', '')</t>
+          <t>('LB69 6641 Z6AV VCAK 7SZB FHJY TXDY', '')</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>[2010.0, 19.81187, 28.02982, 14.0]</t>
+          <t>[2005.0, 31.62293, 23.62821, 20.67]</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>[2010.0, 19.81187, 28.02982, 14.0]</t>
+          <t>[2005.0, 31.62293, 23.62821, 20.67]</t>
         </is>
       </c>
       <c r="D72" s="3" t="inlineStr">
@@ -2402,17 +2402,17 @@
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>('LB25 8193 ZZVU ZNFI UKTG CIWA JSQV', '')</t>
+          <t>('SE62 8794 0081 7723 6087 8593', '')</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>[2011.0, 33.64968, 25.22065, 9.9]</t>
+          <t>[2016.0, 23.16398, 30.78324, 32.55]</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>[2011.0, 33.64968, 25.22065, 9.9]</t>
+          <t>[2016.0, 23.16398, 30.78324, 32.55]</t>
         </is>
       </c>
       <c r="D73" s="3" t="inlineStr">
@@ -2429,17 +2429,17 @@
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>('FR71 1160 5711 20WC TLWU YZZY 355', 'fresh-thinking')</t>
+          <t>('FR55 8614 4500 58LJ 9ONQ WO5M V56', 'Object-based')</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>[2009.0, 32.33383, 19.61646, 16.47]</t>
+          <t>[2010.0, 8.77452, 29.77394, 28.4]</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>[2009.0, 32.33383, 19.61646, 16.47]</t>
+          <t>[2010.0, 8.77452, 29.77394, 28.4]</t>
         </is>
       </c>
       <c r="D74" s="3" t="inlineStr">
@@ -2456,44 +2456,44 @@
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>('SI68 1820 7430 9240 077', '')</t>
+          <t>('IS96 7839 4200 8268 2110 4652 56', 'firmware')</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>[2018.0, 7.37854, 19.69095, 20.21]</t>
+          <t>[2007.0, 2.86685, 22.97517, 19.45]</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>[2018.0, 7.37854, 19.69095, 20.21]</t>
-        </is>
-      </c>
-      <c r="D75" s="3" t="inlineStr">
-        <is>
-          <t>PASS</t>
+          <t>[2052.0, 2.86685, 22.97517, 19.45]</t>
+        </is>
+      </c>
+      <c r="D75" s="4" t="inlineStr">
+        <is>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="E75" s="2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[45.0]</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>('AZ18 BRND WYIG EA0Y 06HS ZKNA TOEB', 'service-desk')</t>
+          <t>('FR75 2140 3789 37VT NT7A FUCF P92', 'explicit')</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>[2004.0, 9.57692, 11.97564, 16.48]</t>
+          <t>[2020.0, 1.16374, 33.73684, 22.43]</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>[2004.0, 9.57692, 11.97564, 16.48]</t>
+          <t>[2020.0, 1.16374, 33.73684, 22.43]</t>
         </is>
       </c>
       <c r="D76" s="3" t="inlineStr">
@@ -2510,17 +2510,17 @@
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>('GL19 8754 3034 5493 70', 'Cloned')</t>
+          <t>('PS08 QCPE USPO K7TA E3FQ GQOQ KRF3 T', '')</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>[2012.0, 27.3021, 19.08725, 19.51]</t>
+          <t>[2018.0, 15.52732, 14.93181, 21.89]</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>[2012.0, 27.3021, 19.08725, 19.51]</t>
+          <t>[2018.0, 15.52732, 14.93181, 21.89]</t>
         </is>
       </c>
       <c r="D77" s="3" t="inlineStr">
@@ -2537,17 +2537,17 @@
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>('GE04 VU99 6596 7310 5692 42', '')</t>
+          <t>('MK46 734T CVK7 JKIO B11', '')</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>[2018.0, 9.60983, 16.88953, 1.17]</t>
+          <t>[0.0, 17.17025, 10.10083, 7.62]</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>[2018.0, 9.60983, 16.88953, 1.17]</t>
+          <t>[0.0, 17.17025, 10.10083, 7.62]</t>
         </is>
       </c>
       <c r="D78" s="3" t="inlineStr">
@@ -2564,17 +2564,17 @@
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>('FR43 0281 5120 22UO EEV5 NNHE 937', 'zero administration')</t>
+          <t>('FR45 8691 9784 71NY HOEF 55CI N94', '')</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>[2015.0, 1.44457, 23.31404, 9.38]</t>
+          <t>[2012.0, 4.53097, 31.62524, 19.08]</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>[2015.0, 1.44457, 23.31404, 9.38]</t>
+          <t>[2012.0, 4.53097, 31.62524, 19.08]</t>
         </is>
       </c>
       <c r="D79" s="3" t="inlineStr">
@@ -2591,17 +2591,17 @@
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>('AT26 5820 2675 0356 3271', 'zero defect')</t>
+          <t>('MT93 PUXX 1605 7YXT YCML KSPR 0UNT 3IH', '')</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>[2008.0, 28.49054, 14.7059, 27.72]</t>
+          <t>[2014.0, 15.13911, 5.78656, 19.52]</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>[2008.0, 28.49054, 14.7059, 27.72]</t>
+          <t>[2014.0, 15.13911, 5.78656, 19.52]</t>
         </is>
       </c>
       <c r="D80" s="3" t="inlineStr">
@@ -2618,17 +2618,17 @@
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>('HU85 1357 8508 2949 0123 4827 6139', '')</t>
+          <t>('AE58 6169 4300 9504 9513 851', '')</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>[2013.0, 21.2783, 33.1919, 29.54]</t>
+          <t>[2005.0, 16.79262, 34.22827, 8.82]</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>[2013.0, 21.2783, 33.1919, 29.54]</t>
+          <t>[2005.0, 16.79262, 34.22827, 8.82]</t>
         </is>
       </c>
       <c r="D81" s="3" t="inlineStr">
@@ -2645,17 +2645,17 @@
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>('NL03 DJJO 7107 5717 84', '')</t>
+          <t>('FR75 1304 6692 36HH YNNW EDRP U16', '')</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>[2016.0, 26.35799, 2.4478, 21.3]</t>
+          <t>[2017.0, 11.65434, 15.00641, 27.21]</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>[2016.0, 26.35799, 2.4478, 21.3]</t>
+          <t>[2017.0, 11.65434, 15.00641, 27.21]</t>
         </is>
       </c>
       <c r="D82" s="3" t="inlineStr">
@@ -2672,17 +2672,17 @@
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>('MD10 QSDS C0PP T8YB NWEB MUCW', '')</t>
+          <t>('SI70 8014 5983 9508 969', '')</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>[2006.0, 20.3756, 22.8325, 4.83]</t>
+          <t>[2011.0, 20.02967, 16.85391, 21.54]</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>[2006.0, 20.3756, 22.8325, 4.83]</t>
+          <t>[2011.0, 20.02967, 16.85391, 21.54]</t>
         </is>
       </c>
       <c r="D83" s="3" t="inlineStr">
@@ -2699,17 +2699,17 @@
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>('FR45 8691 9784 71NY HOEF 55CI N94', '')</t>
+          <t>('CZ91 9143 2822 8759 8003 0329', '')</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>[2012.0, 4.53097, 31.62524, 19.08]</t>
+          <t>[2020.0, 30.56008, 14.6595, 9.0]</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>[2012.0, 4.53097, 31.62524, 19.08]</t>
+          <t>[2020.0, 30.56008, 14.6595, 9.0]</t>
         </is>
       </c>
       <c r="D84" s="3" t="inlineStr">
@@ -2726,17 +2726,17 @@
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>('CR10 1301 0843 5149 3134 7', '')</t>
+          <t>('MD23 PZGO HHRM ARCT VVLJ JRGC', 'project')</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>[1996.0, 12.88227, 2.28652, 15.53]</t>
+          <t>[0.0, 24.61024, 21.53354, 25.02]</t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>[1996.0, 12.88227, 2.28652, 15.53]</t>
+          <t>[0.0, 24.61024, 21.53354, 25.02]</t>
         </is>
       </c>
       <c r="D85" s="3" t="inlineStr">
@@ -2753,17 +2753,17 @@
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>('SM93 B374 1481 278R NGOP UUZN R9P', 'Compatible')</t>
+          <t>('FR06 5787 2577 99HY OXFG H5AC Y13', 'conglomeration')</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>[2011.0, 15.29257, 24.09298, 11.7]</t>
+          <t>[2014.0, 17.54223, 3.39843, 11.09]</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>[2011.0, 15.29257, 24.09298, 11.7]</t>
+          <t>[2014.0, 17.54223, 3.39843, 11.09]</t>
         </is>
       </c>
       <c r="D86" s="3" t="inlineStr">
@@ -2780,17 +2780,17 @@
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>('FI78 1545 2490 0436 58', '', '')</t>
+          <t>('FR14 9721 1762 58D9 L9BL TAW2 Z76', 'encoding')</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>[2008.0, 19.87694, 19.17]</t>
+          <t>[2007.0, 31.63965, 10.49419, 20.16]</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>[2008.0, 19.87694, 19.17]</t>
+          <t>[2007.0, 31.63965, 10.49419, 20.16]</t>
         </is>
       </c>
       <c r="D87" s="3" t="inlineStr">
@@ -2807,17 +2807,17 @@
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>('FR44 6285 3462 75FF SDKU 8JEE Z98', '')</t>
+          <t>('BA56 6184 0204 5174 8421', '')</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>[2015.0, 15.86295, 30.64175, 13.3]</t>
+          <t>[2015.0, 14.56754, 34.13968, 21.32]</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>[2015.0, 15.86295, 30.64175, 13.3]</t>
+          <t>[2015.0, 14.56754, 34.13968, 21.32]</t>
         </is>
       </c>
       <c r="D88" s="3" t="inlineStr">
@@ -2834,17 +2834,17 @@
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>('TR07 5268 2YWM TXNS DDJB TDYH CG', '')</t>
+          <t>('BH52 GMXD DQGK BQV8 QYZO QW', '')</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>[2019.0, 7.53757, 8.57464, 21.1]</t>
+          <t>[2010.0, 19.81187, 28.02982, 14.0]</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>[2019.0, 7.53757, 8.57464, 21.1]</t>
+          <t>[2010.0, 19.81187, 28.02982, 14.0]</t>
         </is>
       </c>
       <c r="D89" s="3" t="inlineStr">
@@ -2861,17 +2861,17 @@
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>('SK05 5786 1420 0506 2569 0799', '')</t>
+          <t>('LV46 XXIX NMFQ 0BWN U3ZD M', '')</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>[2006.0, 5.37354, 15.04885, 16.5]</t>
+          <t>[2009.0, 14.8385, 9.91532, 20.1]</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>[2006.0, 5.37354, 15.04885, 16.5]</t>
+          <t>[2009.0, 14.8385, 9.91532, 20.1]</t>
         </is>
       </c>
       <c r="D90" s="3" t="inlineStr">
@@ -2888,17 +2888,17 @@
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>('NL51 SVWQ 7292 0904 45', '')</t>
+          <t>('CY19 2831 7159 XHH9 SPNB U3ZX H0G1', '')</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>[2015.0, 18.14148, 4.36244, 2.33]</t>
+          <t>[2016.0, 20.68625, 13.45405, 18.54]</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>[2015.0, 18.14148, 4.36244, 2.33]</t>
+          <t>[2016.0, 20.68625, 13.45405, 18.54]</t>
         </is>
       </c>
       <c r="D91" s="3" t="inlineStr">
@@ -2915,17 +2915,17 @@
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>('FR06 5787 2577 99HY OXFG H5AC Y13', 'conglomeration')</t>
+          <t>('SA47 78DR HSF9 1PO2 VXQC KBL3', '')</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>[2014.0, 17.54223, 3.39843, 11.09]</t>
+          <t>[2016.0, 8.04129, 18.91455, 30.66]</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>[2014.0, 17.54223, 3.39843, 11.09]</t>
+          <t>[2016.0, 8.04129, 18.91455, 30.66]</t>
         </is>
       </c>
       <c r="D92" s="3" t="inlineStr">
@@ -2942,17 +2942,17 @@
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>('HR32 2437 0990 3468 3251 7', '', '')</t>
+          <t>('NL03 DJJO 7107 5717 84', '')</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>[2016.0, 7.17604, 21.05]</t>
+          <t>[2016.0, 26.35799, 2.4478, 21.3]</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>[2016.0, 7.17604, 21.05]</t>
+          <t>[2016.0, 26.35799, 2.4478, 21.3]</t>
         </is>
       </c>
       <c r="D93" s="3" t="inlineStr">
@@ -2969,17 +2969,17 @@
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>('MR71 3046 8079 7692 1026 2038 944', '')</t>
+          <t>('PK46 ZUUK KNR1 DKPJ 31JF A2AU', '')</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>[2010.0, 11.52491, 3.78871, 21.97]</t>
+          <t>[2014.0, 26.11139, 19.87706, 19.74]</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>[2010.0, 11.52491, 3.78871, 21.97]</t>
+          <t>[2014.0, 26.11139, 19.87706, 19.74]</t>
         </is>
       </c>
       <c r="D94" s="3" t="inlineStr">
@@ -2996,17 +2996,17 @@
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>('AE58 6169 4300 9504 9513 851', '')</t>
+          <t>('FR17 4386 6057 70VE CKFI L4ST U61', '')</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>[2005.0, 16.79262, 34.22827, 8.82]</t>
+          <t>[2016.0, 10.72207, 26.59578, 27.96]</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>[2005.0, 16.79262, 34.22827, 8.82]</t>
+          <t>[2016.0, 10.72207, 26.59578, 27.96]</t>
         </is>
       </c>
       <c r="D95" s="3" t="inlineStr">
@@ -3023,17 +3023,17 @@
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>('PT86 9472 7150 6598 9677 1790 8', '')</t>
+          <t>('FR26 6978 0875 43UP MGMY PJRT 242', 'content-based')</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>[2004.0, 11.99216, 33.11774, 10.6]</t>
+          <t>[2018.0, 29.333, 33.58855, 32.64]</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>[2004.0, 11.99216, 33.11774, 10.6]</t>
+          <t>[2018.0, 29.333, 33.58855, 32.64]</t>
         </is>
       </c>
       <c r="D96" s="3" t="inlineStr">
@@ -3050,17 +3050,17 @@
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>('MT05 TBDE 5852 9M5Y OEAO MA4U LBHG A9N', '')</t>
+          <t>('FR85 0875 9198 14NK HWJH HMHV 101', '')</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>[2011.0, 23.46623, 27.75647, 21.45]</t>
+          <t>[2015.0, 3.16178, 15.56012, 20.09]</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>[2011.0, 23.46623, 27.75647, 21.45]</t>
+          <t>[2015.0, 3.16178, 15.56012, 20.09]</t>
         </is>
       </c>
       <c r="D97" s="3" t="inlineStr">
@@ -3077,17 +3077,17 @@
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>('LB69 6641 Z6AV VCAK 7SZB FHJY TXDY', '')</t>
+          <t>('CR36 5946 7540 0249 7042 5', 'Customer-focused')</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>[2005.0, 31.62293, 23.62821, 20.67]</t>
+          <t>[2010.0, 24.41216, 9.40856, 2.4]</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>[2005.0, 31.62293, 23.62821, 20.67]</t>
+          <t>[2010.0, 24.41216, 9.40856, 2.4]</t>
         </is>
       </c>
       <c r="D98" s="3" t="inlineStr">
@@ -3104,17 +3104,17 @@
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>('PS25 EPKD CHVW OANF DW5Q RN0W WTCX K', '')</t>
+          <t>('MT62 RGJF 9551 4JYP 1U32 WSUA G82L BQJ', '')</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>[2019.0, 8.35226, 3.71473, 11.16]</t>
+          <t>[2015.0, 30.01065, 32.08387, 24.83]</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>[2019.0, 8.35226, 3.71473, 11.16]</t>
+          <t>[2015.0, 30.01065, 32.08387, 24.83]</t>
         </is>
       </c>
       <c r="D99" s="3" t="inlineStr">
@@ -3131,17 +3131,17 @@
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>('AZ37 ZWXD 4WYS TYQI DDPB LZHH EMQS', '')</t>
+          <t>('PS65 MCEE WBAV 8APE QGL0 Z1N4 QF8J 8', '')</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>[2021.0, 18.99396, 3.25298, 34.29]</t>
+          <t>[2015.0, 27.52542, 31.74467, 22.4]</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>[2021.0, 18.99396, 3.25298, 34.29]</t>
+          <t>[2015.0, 27.52542, 31.74467, 22.4]</t>
         </is>
       </c>
       <c r="D100" s="3" t="inlineStr">
@@ -3158,17 +3158,17 @@
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>('MT93 PUXX 1605 7YXT YCML KSPR 0UNT 3IH', '')</t>
+          <t>('FR62 9845 5528 86SZ 00AZ EKBP C94', '')</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>[2014.0, 15.13911, 5.78656, 19.52]</t>
+          <t>[2011.0, 4.02817, 10.08147, 2.2]</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>[2014.0, 15.13911, 5.78656, 19.52]</t>
+          <t>[2011.0, 4.02817, 10.08147, 2.2]</t>
         </is>
       </c>
       <c r="D101" s="3" t="inlineStr">
@@ -3185,17 +3185,17 @@
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>('AL64 6952 6272 RTRO TG3H ZK4T 57UU', 'needs-based')</t>
+          <t>('NL25 OCGO 6836 2647 49', 'transitional')</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>[2017.0, 12.10915, 14.94297, 3.93]</t>
+          <t>[2012.0, 11.94561, 28.36059, 9.13]</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>[2017.0, 12.10915, 14.94297, 3.93]</t>
+          <t>[2012.0, 11.94561, 28.36059, 9.13]</t>
         </is>
       </c>
       <c r="D102" s="3" t="inlineStr">
@@ -3212,17 +3212,17 @@
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>('FI49 6049 5956 9898 35', 'neutral')</t>
+          <t>('PS73 PCWV 2NHC WKIA 8UXL URY4 AU7Y 3', '')</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>[2017.0, 25.06377, 33.71366, 22.04]</t>
+          <t>[2012.0, 32.86778, 32.34208, 15.86]</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>[2017.0, 25.06377, 33.71366, 22.04]</t>
+          <t>[2012.0, 32.86778, 32.34208, 15.86]</t>
         </is>
       </c>
       <c r="D103" s="3" t="inlineStr">
@@ -3239,17 +3239,17 @@
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>('PS65 MCEE WBAV 8APE QGL0 Z1N4 QF8J 8', '')</t>
+          <t>('LI09 7108 2V6S B11T BR1F R', '')</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>[2015.0, 27.52542, 31.74467, 22.4]</t>
+          <t>[2015.0, 23.51244, 20.43548, 9.47]</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>[2015.0, 27.52542, 31.74467, 22.4]</t>
+          <t>[2015.0, 23.51244, 20.43548, 9.47]</t>
         </is>
       </c>
       <c r="D104" s="3" t="inlineStr">
@@ -3266,17 +3266,17 @@
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>('MK21 288Y D1FL ESNP Q29', '', 'radical')</t>
+          <t>('AD25 5320 1695 V1J5 XQ74 I0R4', 'standardization')</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>[2008.0, 23.93246, 33.43]</t>
+          <t>[2011.0, 13.12997, 5.41229, 2.24]</t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>[2008.0, 23.93246, 33.43]</t>
+          <t>[2011.0, 13.12997, 5.41229, 2.24]</t>
         </is>
       </c>
       <c r="D105" s="3" t="inlineStr">
@@ -3293,17 +3293,17 @@
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>('LB16 5806 PU1J JVSB F9DV JKDI PXRM', '')</t>
+          <t>('AT21 0815 5067 4654 1583', '')</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>[2004.0, 15.35258, 3.82453, 4.05]</t>
+          <t>[2012.0, 25.21563, 5.92503, 11.05]</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>[2004.0, 15.35258, 3.82453, 4.05]</t>
+          <t>[2012.0, 25.21563, 5.92503, 11.05]</t>
         </is>
       </c>
       <c r="D106" s="3" t="inlineStr">
@@ -3320,17 +3320,17 @@
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>('BE13 3895 5129 7876', 'Switchable')</t>
+          <t>('IL37 0716 3099 8553 0951 409', '')</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>[2004.0, 6.39977, 30.0622, 10.57]</t>
+          <t>[2010.0, 24.14219, 13.83815, 17.75]</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>[2004.0, 6.39977, 30.0622, 10.57]</t>
+          <t>[2010.0, 24.14219, 13.83815, 17.75]</t>
         </is>
       </c>
       <c r="D107" s="3" t="inlineStr">
@@ -3347,17 +3347,17 @@
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>('FR45 0872 9704 65YG MLW0 Y1RJ I95', '')</t>
+          <t>('FR43 0281 5120 22UO EEV5 NNHE 937', 'zero administration')</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>[2014.0, 25.56047, 2.36789, 32.25]</t>
+          <t>[2015.0, 1.44457, 23.31404, 9.38]</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>[2014.0, 25.56047, 2.36789, 32.25]</t>
+          <t>[2015.0, 1.44457, 23.31404, 9.38]</t>
         </is>
       </c>
       <c r="D108" s="3" t="inlineStr">
@@ -3374,17 +3374,17 @@
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>('FR55 8614 4500 58LJ 9ONQ WO5M V56', 'Object-based')</t>
+          <t>('VG12 VRDR 7201 1116 1917 7386', '')</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>[2010.0, 8.77452, 29.77394, 28.4]</t>
+          <t>[2020.0, 26.35827, 21.27747, 9.2]</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>[2010.0, 8.77452, 29.77394, 28.4]</t>
+          <t>[2020.0, 26.35827, 21.27747, 9.2]</t>
         </is>
       </c>
       <c r="D109" s="3" t="inlineStr">
@@ -3401,17 +3401,17 @@
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>('GR16 3065 793B Z5RU G17Q Q3QN RXW', '')</t>
+          <t>('AL72 8333 0306 154N G73I 7JSM 6BI1', 'Integrated')</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>[2009.0, 3.85894, 2.76212, 26.07]</t>
+          <t>[2005.0, 16.76123, 23.15892, 21.91]</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>[2009.0, 3.85894, 2.76212, 26.07]</t>
+          <t>[2005.0, 16.76123, 23.15892, 21.91]</t>
         </is>
       </c>
       <c r="D110" s="3" t="inlineStr">
@@ -3428,17 +3428,17 @@
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>('FR59 2632 5348 89TN HTWN GYRY C99', '')</t>
+          <t>('FR34 8487 2432 90RA D8D0 QFVP 865', 'local area network')</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>[2011.0, 30.4217, 11.26172, 14.88]</t>
+          <t>[2018.0, 21.6696, 25.44197, 19.79]</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>[2011.0, 30.4217, 11.26172, 14.88]</t>
+          <t>[2018.0, 21.6696, 25.44197, 19.79]</t>
         </is>
       </c>
       <c r="D111" s="3" t="inlineStr">
@@ -3455,44 +3455,44 @@
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>('IS96 7839 4200 8268 2110 4652 56', 'firmware')</t>
+          <t>('BE85 6513 7708 8282', '')</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>[2007.0, 2.86685, 22.97517, 19.45]</t>
+          <t>[2018.0, 20.28775, 34.65946, 13.52]</t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>[2052.0, 2.86685, 22.97517, 19.45]</t>
-        </is>
-      </c>
-      <c r="D112" s="4" t="inlineStr">
-        <is>
-          <t>FAIL</t>
+          <t>[2018.0, 20.28775, 34.65946, 13.52]</t>
+        </is>
+      </c>
+      <c r="D112" s="3" t="inlineStr">
+        <is>
+          <t>PASS</t>
         </is>
       </c>
       <c r="E112" s="2" t="inlineStr">
         <is>
-          <t>[45.0]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>('GL16 3614 7192 7269 45', '')</t>
+          <t>('IT74 D323 7563 152T 29DG ADUC J46', 'well-modulated')</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>[2018.0, 6.71129, 5.96627, 15.6]</t>
+          <t>[2015.0, 12.93085, 1.32315, 31.79]</t>
         </is>
       </c>
       <c r="C113" s="2" t="inlineStr">
         <is>
-          <t>[2018.0, 6.71129, 5.96627, 15.6]</t>
+          <t>[2015.0, 12.93085, 1.32315, 31.79]</t>
         </is>
       </c>
       <c r="D113" s="3" t="inlineStr">
@@ -3509,17 +3509,17 @@
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>('CY92 9856 5900 JNUI MQDJ GMZ5 SXY3', '')</t>
+          <t>('LB16 5806 PU1J JVSB F9DV JKDI PXRM', '')</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>[2013.0, 14.08251, 11.45311, 5.92]</t>
+          <t>[2004.0, 15.35258, 3.82453, 4.05]</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>[2013.0, 14.08251, 11.45311, 5.92]</t>
+          <t>[2004.0, 15.35258, 3.82453, 4.05]</t>
         </is>
       </c>
       <c r="D114" s="3" t="inlineStr">
@@ -3536,17 +3536,17 @@
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>('IS51 2444 7567 4951 4366 0772 89', '')</t>
+          <t>('AZ08 LFBO EUZA W4OP 9B1Y DT3H NSIN', 'Object-based')</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>[2005.0, 19.12235, 34.37349, 13.68]</t>
+          <t>[2010.0, 21.78551, 3.16202, 6.33]</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t>[2005.0, 19.12235, 34.37349, 13.68]</t>
+          <t>[2010.0, 21.78551, 3.16202, 6.33]</t>
         </is>
       </c>
       <c r="D115" s="3" t="inlineStr">
@@ -3563,17 +3563,17 @@
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>('MT62 RGJF 9551 4JYP 1U32 WSUA G82L BQJ', '')</t>
+          <t>('FR54 6321 1036 07CL FIPI W3AJ A72', '')</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>[2015.0, 30.01065, 32.08387, 24.83]</t>
+          <t>[2015.0, 31.6075, 22.79953, 24.24]</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>[2015.0, 30.01065, 32.08387, 24.83]</t>
+          <t>[2015.0, 31.6075, 22.79953, 24.24]</t>
         </is>
       </c>
       <c r="D116" s="3" t="inlineStr">
@@ -3590,17 +3590,17 @@
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>('LI09 7108 2V6S B11T BR1F R', '')</t>
+          <t>('GL16 3614 7192 7269 45', '')</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>[2015.0, 23.51244, 20.43548, 9.47]</t>
+          <t>[2018.0, 6.71129, 5.96627, 15.6]</t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>[2015.0, 23.51244, 20.43548, 9.47]</t>
+          <t>[2018.0, 6.71129, 5.96627, 15.6]</t>
         </is>
       </c>
       <c r="D117" s="3" t="inlineStr">
@@ -3617,17 +3617,17 @@
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>('SI74 2819 6967 0008 990', 'Open-architected')</t>
+          <t>('CH31 5106 86EY EGNR WZ9U L', '')</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>[2013.0, 31.38258, 19.83445, 3.91]</t>
+          <t>[2019.0, 17.51596, 16.62937, 17.69]</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>[2013.0, 31.38258, 19.83445, 3.91]</t>
+          <t>[2019.0, 17.51596, 16.62937, 17.69]</t>
         </is>
       </c>
       <c r="D118" s="3" t="inlineStr">
@@ -3644,17 +3644,17 @@
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>('BG90 CKND 3854 18HU XD5M 8J', '')</t>
+          <t>('GR30 9103 924T 492V ODJA MC2H V73', 'matrix')</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t>[2001.0, 4.03151, 2.32338, 12.23]</t>
+          <t>[2016.0, 21.39719, 9.31935, 8.07]</t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>[2001.0, 4.03151, 2.32338, 12.23]</t>
+          <t>[2016.0, 21.39719, 9.31935, 8.07]</t>
         </is>
       </c>
       <c r="D119" s="3" t="inlineStr">
@@ -3671,17 +3671,17 @@
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>('LV14 EUQC Z3OS DRE2 BV3X E', '')</t>
+          <t>('EE60 0860 2937 4213 4766', 'Enhanced')</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>[2017.0, 9.13007, 5.43523, 17.06]</t>
+          <t>[2013.0, 33.92035, 17.96162, 13.88]</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>[2017.0, 9.13007, 5.43523, 17.06]</t>
+          <t>[2013.0, 33.92035, 17.96162, 13.88]</t>
         </is>
       </c>
       <c r="D120" s="3" t="inlineStr">
@@ -3698,17 +3698,17 @@
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>('PL82 0606 5923 2589 0099 5855 6419', 'next generation')</t>
+          <t>('PT48 9547 7145 0711 6406 9763 0', 'Quality-focused')</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
         <is>
-          <t>[2017.0, 30.4334, 22.8041, 18.4]</t>
+          <t>[2020.0, 25.34973, 30.41719, 9.06]</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>[2017.0, 30.4334, 22.8041, 18.4]</t>
+          <t>[2020.0, 25.34973, 30.41719, 9.06]</t>
         </is>
       </c>
       <c r="D121" s="3" t="inlineStr">
@@ -3725,17 +3725,17 @@
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>('NL25 OCGO 6836 2647 49', 'transitional')</t>
+          <t>('FR44 6285 3462 75FF SDKU 8JEE Z98', '')</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>[2012.0, 11.94561, 28.36059, 9.13]</t>
+          <t>[2015.0, 15.86295, 30.64175, 13.3]</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>[2012.0, 11.94561, 28.36059, 9.13]</t>
+          <t>[2015.0, 15.86295, 30.64175, 13.3]</t>
         </is>
       </c>
       <c r="D122" s="3" t="inlineStr">
@@ -3752,17 +3752,17 @@
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>('FR26 4582 5102 64DY 4DY6 LI7G E21', 'Automated')</t>
+          <t>('FR16 0580 2045 20MG KTEV ZQNO 396', '')</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>[2007.0, 20.82924, 14.15138, 16.84]</t>
+          <t>[2010.0, 19.01096, 18.36853, 32.16]</t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>[2007.0, 20.82924, 14.15138, 16.84]</t>
+          <t>[2010.0, 19.01096, 18.36853, 32.16]</t>
         </is>
       </c>
       <c r="D123" s="3" t="inlineStr">
@@ -3779,17 +3779,17 @@
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>('PS17 YVSS UAFQ VR9I STIU TL70 PVBY I', '')</t>
+          <t>('AD11 8389 0233 NS7R WURI 9OPT', 'Progressive')</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>[2011.0, 3.40426, 14.73376, 26.67]</t>
+          <t>[2004.0, 8.04103, 4.39201, 2.61]</t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>[2011.0, 3.40426, 14.73376, 26.67]</t>
+          <t>[2004.0, 8.04103, 4.39201, 2.61]</t>
         </is>
       </c>
       <c r="D124" s="3" t="inlineStr">
@@ -3806,17 +3806,17 @@
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>('ME21 6004 3035 6245 8080 85', '')</t>
+          <t>('SE73 9240 7477 7911 9057 9462', '')</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t>[2009.0, 29.86816, 16.76982, 18.74]</t>
+          <t>[2008.0, 12.53634, 28.19933, 34.03]</t>
         </is>
       </c>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>[2009.0, 29.86816, 16.76982, 18.74]</t>
+          <t>[2008.0, 12.53634, 28.19933, 34.03]</t>
         </is>
       </c>
       <c r="D125" s="3" t="inlineStr">
@@ -3833,17 +3833,17 @@
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>('MK40 019S AXFJ AHYJ D76', '')</t>
+          <t>('PS17 YVSS UAFQ VR9I STIU TL70 PVBY I', '')</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>[2011.0, 31.03655, 7.06158, 1.82]</t>
+          <t>[2011.0, 3.40426, 14.73376, 26.67]</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>[2011.0, 31.03655, 7.06158, 1.82]</t>
+          <t>[2011.0, 3.40426, 14.73376, 26.67]</t>
         </is>
       </c>
       <c r="D126" s="3" t="inlineStr">
@@ -3860,17 +3860,17 @@
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>('LV95 ROBP YYK3 7KVF 97PQ V', '')</t>
+          <t>('MD50 ZOFQ MPTQ MV5P KHHR 8TBN', 'User-friendly')</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>[2016.0, 21.66792, 22.75278, 25.6]</t>
+          <t>[2014.0, 4.43078, 20.29182, 30.96]</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>[2016.0, 21.66792, 22.75278, 25.6]</t>
+          <t>[2014.0, 4.43078, 20.29182, 30.96]</t>
         </is>
       </c>
       <c r="D127" s="3" t="inlineStr">
@@ -3887,17 +3887,17 @@
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>('AD25 5320 1695 V1J5 XQ74 I0R4', 'standardization')</t>
+          <t>('FI49 6049 5956 9898 35', 'neutral')</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>[2011.0, 13.12997, 5.41229, 2.24]</t>
+          <t>[2017.0, 25.06377, 33.71366, 22.04]</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>[2011.0, 13.12997, 5.41229, 2.24]</t>
+          <t>[2017.0, 25.06377, 33.71366, 22.04]</t>
         </is>
       </c>
       <c r="D128" s="3" t="inlineStr">
@@ -3914,17 +3914,17 @@
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>('VG12 VRDR 7201 1116 1917 7386', '')</t>
+          <t>('FR26 4582 5102 64DY 4DY6 LI7G E21', 'Automated')</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t>[2020.0, 26.35827, 21.27747, 9.2]</t>
+          <t>[2007.0, 20.82924, 14.15138, 16.84]</t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>[2020.0, 26.35827, 21.27747, 9.2]</t>
+          <t>[2007.0, 20.82924, 14.15138, 16.84]</t>
         </is>
       </c>
       <c r="D129" s="3" t="inlineStr">
@@ -3941,17 +3941,17 @@
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>('FR44 5550 2233 12ZL XZL2 6UMG N98', 'Face to face')</t>
+          <t>('LI72 7685 1IGO GJCT HSAJ K', 'Graphical User Interface')</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>[2007.0, 14.8618, 19.56054, 2.98]</t>
+          <t>[2013.0, 18.02644, 7.84381, 1.09]</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>[2007.0, 14.8618, 19.56054, 2.98]</t>
+          <t>[2013.0, 18.02644, 7.84381, 1.09]</t>
         </is>
       </c>
       <c r="D130" s="3" t="inlineStr">
@@ -3968,17 +3968,17 @@
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>('HR23 9970 5212 1133 4458 3', 'array')</t>
+          <t>('AD39 7446 9930 MWO3 CIXZ JXUM', 'middleware')</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t>[2009.0, 8.59499, 31.11391, 18.98]</t>
+          <t>[2011.0, 33.74886, 17.95307, 2.94]</t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>[2009.0, 8.59499, 31.11391, 18.98]</t>
+          <t>[2011.0, 33.74886, 17.95307, 2.94]</t>
         </is>
       </c>
       <c r="D131" s="3" t="inlineStr">
@@ -3995,17 +3995,17 @@
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>('SM88 C084 1092 877W KBGO GYDP RB9', 'Persevering')</t>
+          <t>('PT86 9472 7150 6598 9677 1790 8', '')</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>[2013.0, 2.7267, 16.53669, 4.44]</t>
+          <t>[2004.0, 11.99216, 33.11774, 10.6]</t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>[2013.0, 2.7267, 16.53669, 4.44]</t>
+          <t>[2004.0, 11.99216, 33.11774, 10.6]</t>
         </is>
       </c>
       <c r="D132" s="3" t="inlineStr">
@@ -4022,17 +4022,17 @@
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>('FR62 9845 5528 86SZ 00AZ EKBP C94', '')</t>
+          <t>('CY92 9856 5900 JNUI MQDJ GMZ5 SXY3', '')</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>[2011.0, 4.02817, 10.08147, 2.2]</t>
+          <t>[2013.0, 14.08251, 11.45311, 5.92]</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>[2011.0, 4.02817, 10.08147, 2.2]</t>
+          <t>[2013.0, 14.08251, 11.45311, 5.92]</t>
         </is>
       </c>
       <c r="D133" s="3" t="inlineStr">
@@ -4049,17 +4049,17 @@
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>('FR75 2140 3789 37VT NT7A FUCF P92', 'explicit')</t>
+          <t>('MT05 TBDE 5852 9M5Y OEAO MA4U LBHG A9N', '')</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>[2020.0, 1.16374, 33.73684, 22.43]</t>
+          <t>[2011.0, 23.46623, 27.75647, 21.45]</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>[2020.0, 1.16374, 33.73684, 22.43]</t>
+          <t>[2011.0, 23.46623, 27.75647, 21.45]</t>
         </is>
       </c>
       <c r="D134" s="3" t="inlineStr">
@@ -4076,17 +4076,17 @@
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>('KZ45 2476 JXRW ABRQ 1XTC', '')</t>
+          <t>('PS22 XCSM A4JV ZWHN GKJH NN0I SJAV N', 'Synergistic')</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>[2014.0, 12.37228, 8.68935, 11.67]</t>
+          <t>[2004.0, 6.60445, 32.82567, 14.59]</t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t>[2014.0, 12.37228, 8.68935, 11.67]</t>
+          <t>[2004.0, 6.60445, 32.82567, 14.59]</t>
         </is>
       </c>
       <c r="D135" s="3" t="inlineStr">
@@ -4103,17 +4103,17 @@
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>('GR89 8461 8453 XZOY ULUP ZUHB 45H', '')</t>
+          <t>('MK40 019S AXFJ AHYJ D76', '')</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>[2016.0, 27.31544, 6.59009, 18.33]</t>
+          <t>[2011.0, 31.03655, 7.06158, 1.82]</t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>[2016.0, 27.31544, 6.59009, 18.33]</t>
+          <t>[2011.0, 31.03655, 7.06158, 1.82]</t>
         </is>
       </c>
       <c r="D136" s="3" t="inlineStr">
@@ -4130,17 +4130,17 @@
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>('DO91 L62F 0944 6935 1417 5974 5533', 'solution-oriented')</t>
+          <t>('LU85 097J NGB4 CYVN 067E', '')</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>[2011.0, 33.92766, 31.92266, 26.77]</t>
+          <t>[2012.0, 18.80157, 17.98329, 9.32]</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>[2011.0, 33.92766, 31.92266, 26.77]</t>
+          <t>[2012.0, 18.80157, 17.98329, 9.32]</t>
         </is>
       </c>
       <c r="D137" s="3" t="inlineStr">
@@ -4157,17 +4157,17 @@
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>('AT32 9889 2449 9236 2133', '')</t>
+          <t>('PK88 MODL G7O1 HQN9 1GPW X3XN', '')</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>[2014.0, 4.21371, 13.74512, 13.78]</t>
+          <t>[2016.0, 24.1303, 19.53632, 4.3]</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>[2014.0, 4.21371, 13.74512, 13.78]</t>
+          <t>[2016.0, 24.1303, 19.53632, 4.3]</t>
         </is>
       </c>
       <c r="D138" s="3" t="inlineStr">
@@ -4184,17 +4184,17 @@
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>('FR54 6321 1036 07CL FIPI W3AJ A72', '')</t>
+          <t>('ES22 9700 7734 8770 4091 5098', '')</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>[2015.0, 31.6075, 22.79953, 24.24]</t>
+          <t>[2009.0, 6.07865, 24.7863, 5.22]</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>[2015.0, 31.6075, 22.79953, 24.24]</t>
+          <t>[2009.0, 6.07865, 24.7863, 5.22]</t>
         </is>
       </c>
       <c r="D139" s="3" t="inlineStr">
@@ -4211,17 +4211,17 @@
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>('SE62 8794 0081 7723 6087 8593', '')</t>
+          <t>('AT93 5616 4483 1930 1613', '')</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>[2016.0, 23.16398, 30.78324, 32.55]</t>
+          <t>[2017.0, 25.15557, 17.36863, 10.99]</t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>[2016.0, 23.16398, 30.78324, 32.55]</t>
+          <t>[2017.0, 25.15557, 17.36863, 10.99]</t>
         </is>
       </c>
       <c r="D140" s="3" t="inlineStr">
@@ -4238,44 +4238,44 @@
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>('PL70 3380 5531 5257 6545 0735 9929', 'Multi-layered')</t>
+          <t>('FR54 4415 3882 12MY GWIB WULK D13', '')</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>[2019.0, 1.75088, 15.06291, 8.44]</t>
+          <t>[2013.0, 23.52919, 14.31729, 26.44]</t>
         </is>
       </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>[2019.0, 1.75088, 15.06291, 78.44]</t>
-        </is>
-      </c>
-      <c r="D141" s="4" t="inlineStr">
-        <is>
-          <t>FAIL</t>
+          <t>[2013.0, 23.52919, 14.31729, 26.44]</t>
+        </is>
+      </c>
+      <c r="D141" s="3" t="inlineStr">
+        <is>
+          <t>PASS</t>
         </is>
       </c>
       <c r="E141" s="2" t="inlineStr">
         <is>
-          <t>[70.0]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>('GR30 9103 924T 492V ODJA MC2H V73', 'matrix')</t>
+          <t>('HU85 1357 8508 2949 0123 4827 6139', '')</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>[2016.0, 21.39719, 9.31935, 8.07]</t>
+          <t>[2013.0, 21.2783, 33.1919, 29.54]</t>
         </is>
       </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>[2016.0, 21.39719, 9.31935, 8.07]</t>
+          <t>[2013.0, 21.2783, 33.1919, 29.54]</t>
         </is>
       </c>
       <c r="D142" s="3" t="inlineStr">
@@ -4292,17 +4292,17 @@
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>('IT74 D323 7563 152T 29DG ADUC J46', 'well-modulated')</t>
+          <t>('LV91 WMUV JOFO 2XLR UYEI T', 'Innovative')</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t>[2015.0, 12.93085, 1.32315, 31.79]</t>
+          <t>[2008.0, 28.97925, 6.71373, 29.25]</t>
         </is>
       </c>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>[2015.0, 12.93085, 1.32315, 31.79]</t>
+          <t>[2008.0, 28.97925, 6.71373, 29.25]</t>
         </is>
       </c>
       <c r="D143" s="3" t="inlineStr">
@@ -4319,17 +4319,17 @@
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>('MR63 4626 5538 5305 3799 0332 886', 'mission-critical')</t>
+          <t>('FR06 2928 8076 28DQ 2LU7 4FID F04', 'didactic')</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>[2015.0, 11.05505, 23.72029, 5.36]</t>
+          <t>[2002.0, 24.67853, 25.10648, 23.27]</t>
         </is>
       </c>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>[2015.0, 11.05505, 23.72029, 5.36]</t>
+          <t>[2002.0, 24.67853, 25.10648, 23.27]</t>
         </is>
       </c>
       <c r="D144" s="3" t="inlineStr">
@@ -4346,17 +4346,17 @@
     <row r="145">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>('MK46 734T CVK7 JKIO B11', '')</t>
+          <t>('AL97 9974 2251 MJPR C5VC VVBS VZMC', '')</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
         <is>
-          <t>[0.0, 17.17025, 10.10083, 7.62]</t>
+          <t>[2012.0, 34.75131, 5.40346, 12.32]</t>
         </is>
       </c>
       <c r="C145" s="2" t="inlineStr">
         <is>
-          <t>[0.0, 17.17025, 10.10083, 7.62]</t>
+          <t>[2012.0, 34.75131, 5.40346, 12.32]</t>
         </is>
       </c>
       <c r="D145" s="3" t="inlineStr">
@@ -4373,44 +4373,44 @@
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>('PK88 MODL G7O1 HQN9 1GPW X3XN', '')</t>
+          <t>('HU52 9898 4213 5176 1777 7165 5419', 'encompassing')</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t>[2016.0, 24.1303, 19.53632, 4.3]</t>
+          <t>[2012.0, 1.7833, 23.57441, 23.3]</t>
         </is>
       </c>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>[2016.0, 24.1303, 19.53632, 4.3]</t>
-        </is>
-      </c>
-      <c r="D146" s="3" t="inlineStr">
-        <is>
-          <t>PASS</t>
+          <t>[2012.0, 0.7833, 23.57441, 23.3]</t>
+        </is>
+      </c>
+      <c r="D146" s="4" t="inlineStr">
+        <is>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="E146" s="2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[-1.0]</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>('SA47 78DR HSF9 1PO2 VXQC KBL3', '')</t>
+          <t>('AT12 1939 6455 5066 7889', '')</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
         <is>
-          <t>[2016.0, 8.04129, 18.91455, 30.66]</t>
+          <t>[2014.0, 2.57696, 27.78488, 13.99]</t>
         </is>
       </c>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>[2016.0, 8.04129, 18.91455, 30.66]</t>
+          <t>[2014.0, 2.57696, 27.78488, 13.99]</t>
         </is>
       </c>
       <c r="D147" s="3" t="inlineStr">
@@ -4427,17 +4427,17 @@
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>('DK13 2114 5766 0520 95', '')</t>
+          <t>('SK05 5786 1420 0506 2569 0799', '')</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>[2019.0, 20.32835, 22.20597, 22.99]</t>
+          <t>[2006.0, 5.37354, 15.04885, 16.5]</t>
         </is>
       </c>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>[2019.0, 20.32835, 22.20597, 22.99]</t>
+          <t>[2006.0, 5.37354, 15.04885, 16.5]</t>
         </is>
       </c>
       <c r="D148" s="3" t="inlineStr">
@@ -4454,17 +4454,17 @@
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>('TR21 9920 7ENO DPGN 3QKY 7XWB XG', '')</t>
+          <t>('MC25 6140 6612 40NT JOOH KYXP H72', 'local')</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t>[2009.0, 14.85743, 24.29145, 17.76]</t>
+          <t>[2000.0, 9.85837, 6.05067, 31.17]</t>
         </is>
       </c>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>[2009.0, 14.85743, 24.29145, 17.76]</t>
+          <t>[2000.0, 9.85837, 6.05067, 31.17]</t>
         </is>
       </c>
       <c r="D149" s="3" t="inlineStr">
